--- a/public/files/sample_brands.xlsx
+++ b/public/files/sample_brands.xlsx
@@ -1,21 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp4\htdocs\wakasa\public\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp4\htdocs\wakasa5\public\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E1DCDD-BC1F-4F1F-A139-63D2DFD2FB6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F1F115-B99F-4E5B-9A8C-0C9200A28F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -52,7 +63,7 @@
     <t>550 cc</t>
   </si>
   <si>
-    <t>type</t>
+    <t>description3</t>
   </si>
 </sst>
 </file>
@@ -361,7 +372,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/public/files/sample_brands.xlsx
+++ b/public/files/sample_brands.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp4\htdocs\wakasa5\public\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F1F115-B99F-4E5B-9A8C-0C9200A28F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{068FEBF5-BF92-43A8-A0CD-9FC6AEE6D2A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="474">
   <si>
     <t>code</t>
   </si>
@@ -39,9 +39,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>2 TAK</t>
-  </si>
-  <si>
     <t>description</t>
   </si>
   <si>
@@ -57,20 +54,1412 @@
     <t>S 10 P</t>
   </si>
   <si>
-    <t>HI JET W 55</t>
-  </si>
-  <si>
     <t>550 cc</t>
   </si>
   <si>
     <t>description3</t>
+  </si>
+  <si>
+    <t>207A</t>
+  </si>
+  <si>
+    <t>207C</t>
+  </si>
+  <si>
+    <t>207E</t>
+  </si>
+  <si>
+    <t>207F</t>
+  </si>
+  <si>
+    <t>419A</t>
+  </si>
+  <si>
+    <t>419C</t>
+  </si>
+  <si>
+    <t>419E</t>
+  </si>
+  <si>
+    <t>419F</t>
+  </si>
+  <si>
+    <t>419G</t>
+  </si>
+  <si>
+    <t>419H</t>
+  </si>
+  <si>
+    <t>419J</t>
+  </si>
+  <si>
+    <t>419K</t>
+  </si>
+  <si>
+    <t>419L</t>
+  </si>
+  <si>
+    <t>419M</t>
+  </si>
+  <si>
+    <t>419N</t>
+  </si>
+  <si>
+    <t>419P</t>
+  </si>
+  <si>
+    <t>419Q</t>
+  </si>
+  <si>
+    <t>419R</t>
+  </si>
+  <si>
+    <t>419S</t>
+  </si>
+  <si>
+    <t>419Z</t>
+  </si>
+  <si>
+    <t>504A</t>
+  </si>
+  <si>
+    <t>508A</t>
+  </si>
+  <si>
+    <t>508E</t>
+  </si>
+  <si>
+    <t>608A</t>
+  </si>
+  <si>
+    <t>608B</t>
+  </si>
+  <si>
+    <t>608C</t>
+  </si>
+  <si>
+    <t>608D</t>
+  </si>
+  <si>
+    <t>608E</t>
+  </si>
+  <si>
+    <t>608F</t>
+  </si>
+  <si>
+    <t>608G</t>
+  </si>
+  <si>
+    <t>608H</t>
+  </si>
+  <si>
+    <t>608J</t>
+  </si>
+  <si>
+    <t>608K</t>
+  </si>
+  <si>
+    <t>608L</t>
+  </si>
+  <si>
+    <t>608M</t>
+  </si>
+  <si>
+    <t>608N</t>
+  </si>
+  <si>
+    <t>609A</t>
+  </si>
+  <si>
+    <t>609C</t>
+  </si>
+  <si>
+    <t>609E</t>
+  </si>
+  <si>
+    <t>609F</t>
+  </si>
+  <si>
+    <t>609H</t>
+  </si>
+  <si>
+    <t>609J</t>
+  </si>
+  <si>
+    <t>609K</t>
+  </si>
+  <si>
+    <t>609L</t>
+  </si>
+  <si>
+    <t>609M</t>
+  </si>
+  <si>
+    <t>609N</t>
+  </si>
+  <si>
+    <t>609P</t>
+  </si>
+  <si>
+    <t>609Q</t>
+  </si>
+  <si>
+    <t>609R</t>
+  </si>
+  <si>
+    <t>709A</t>
+  </si>
+  <si>
+    <t>709C</t>
+  </si>
+  <si>
+    <t>709E</t>
+  </si>
+  <si>
+    <t>709F</t>
+  </si>
+  <si>
+    <t>709G</t>
+  </si>
+  <si>
+    <t>709H</t>
+  </si>
+  <si>
+    <t>709J</t>
+  </si>
+  <si>
+    <t>903A</t>
+  </si>
+  <si>
+    <t>903C</t>
+  </si>
+  <si>
+    <t>903E</t>
+  </si>
+  <si>
+    <t>903F</t>
+  </si>
+  <si>
+    <t>903H</t>
+  </si>
+  <si>
+    <t>903J</t>
+  </si>
+  <si>
+    <t>903L</t>
+  </si>
+  <si>
+    <t>907A</t>
+  </si>
+  <si>
+    <t>907C</t>
+  </si>
+  <si>
+    <t>907E</t>
+  </si>
+  <si>
+    <t>908A</t>
+  </si>
+  <si>
+    <t>908C</t>
+  </si>
+  <si>
+    <t>908E</t>
+  </si>
+  <si>
+    <t>908F</t>
+  </si>
+  <si>
+    <t>0000</t>
+  </si>
+  <si>
+    <t>OTHER</t>
+  </si>
+  <si>
+    <t>DAIHATSU</t>
+  </si>
+  <si>
+    <t>S 70</t>
+  </si>
+  <si>
+    <t>S 75</t>
+  </si>
+  <si>
+    <t>S 88</t>
+  </si>
+  <si>
+    <t>F 600</t>
+  </si>
+  <si>
+    <t>F 650</t>
+  </si>
+  <si>
+    <t>F 651</t>
+  </si>
+  <si>
+    <t>S 89</t>
+  </si>
+  <si>
+    <t>S 91</t>
+  </si>
+  <si>
+    <t>S 92</t>
+  </si>
+  <si>
+    <t>S 401</t>
+  </si>
+  <si>
+    <t>S 402</t>
+  </si>
+  <si>
+    <t>S 402-'22</t>
+  </si>
+  <si>
+    <t>F 10</t>
+  </si>
+  <si>
+    <t>F 50</t>
+  </si>
+  <si>
+    <t>F 70</t>
+  </si>
+  <si>
+    <t>F 73</t>
+  </si>
+  <si>
+    <t>F 61</t>
+  </si>
+  <si>
+    <t>F 500</t>
+  </si>
+  <si>
+    <t>F 520</t>
+  </si>
+  <si>
+    <t>F 75</t>
+  </si>
+  <si>
+    <t>F 78</t>
+  </si>
+  <si>
+    <t>F 69</t>
+  </si>
+  <si>
+    <t>F 501</t>
+  </si>
+  <si>
+    <t>F 521</t>
+  </si>
+  <si>
+    <t>F 700</t>
+  </si>
+  <si>
+    <t>F 800</t>
+  </si>
+  <si>
+    <t>SV23</t>
+  </si>
+  <si>
+    <t>DV 26</t>
+  </si>
+  <si>
+    <t>V 22</t>
+  </si>
+  <si>
+    <t>V 83</t>
+  </si>
+  <si>
+    <t>FORD</t>
+  </si>
+  <si>
+    <t>FORD 2.5</t>
+  </si>
+  <si>
+    <t>FORD 3.0</t>
+  </si>
+  <si>
+    <t>FORD '06</t>
+  </si>
+  <si>
+    <t>DUTRO</t>
+  </si>
+  <si>
+    <t>HINO FB</t>
+  </si>
+  <si>
+    <t>KR 300/ 320</t>
+  </si>
+  <si>
+    <t>FF 172LA</t>
+  </si>
+  <si>
+    <t>FF 172MA</t>
+  </si>
+  <si>
+    <t>FF 172NA</t>
+  </si>
+  <si>
+    <t>FM 226MA</t>
+  </si>
+  <si>
+    <t>FG 210J</t>
+  </si>
+  <si>
+    <t>FG 215J</t>
+  </si>
+  <si>
+    <t>FG 235J</t>
+  </si>
+  <si>
+    <t>FL 235J</t>
+  </si>
+  <si>
+    <t>SG 260J</t>
+  </si>
+  <si>
+    <t>FG 260J</t>
+  </si>
+  <si>
+    <t>HINO</t>
+  </si>
+  <si>
+    <t>FL 260J</t>
+  </si>
+  <si>
+    <t>FM 320P</t>
+  </si>
+  <si>
+    <t>FG 8J</t>
+  </si>
+  <si>
+    <t>FL/FM 8J</t>
+  </si>
+  <si>
+    <t>FS 271 KD/ KM</t>
+  </si>
+  <si>
+    <t>AK 1J</t>
+  </si>
+  <si>
+    <t>RK 1J</t>
+  </si>
+  <si>
+    <t>EF 750</t>
+  </si>
+  <si>
+    <t>RG 1J</t>
+  </si>
+  <si>
+    <t>ZS 700</t>
+  </si>
+  <si>
+    <t>MOBILIO</t>
+  </si>
+  <si>
+    <t>HYUNDAI</t>
+  </si>
+  <si>
+    <t>ISUZU</t>
+  </si>
+  <si>
+    <t>C 223</t>
+  </si>
+  <si>
+    <t>KBG 25</t>
+  </si>
+  <si>
+    <t>KBD 25</t>
+  </si>
+  <si>
+    <t>KBD 26</t>
+  </si>
+  <si>
+    <t>TBR 52</t>
+  </si>
+  <si>
+    <t>TBR 54</t>
+  </si>
+  <si>
+    <t>TBR 541</t>
+  </si>
+  <si>
+    <t>TRAGA 4JA1</t>
+  </si>
+  <si>
+    <t>D MAX</t>
+  </si>
+  <si>
+    <t>D MAX 2.5</t>
+  </si>
+  <si>
+    <t>D MAX 4WD</t>
+  </si>
+  <si>
+    <t>C 240</t>
+  </si>
+  <si>
+    <t>KAD 51</t>
+  </si>
+  <si>
+    <t>KAD51'78</t>
+  </si>
+  <si>
+    <t>KAD51'82</t>
+  </si>
+  <si>
+    <t>NHR 55</t>
+  </si>
+  <si>
+    <t>NKR 58</t>
+  </si>
+  <si>
+    <t>NLR 55</t>
+  </si>
+  <si>
+    <t>NKR 55 E2</t>
+  </si>
+  <si>
+    <t>TLD 56</t>
+  </si>
+  <si>
+    <t>TLD 58</t>
+  </si>
+  <si>
+    <t>NKR 66</t>
+  </si>
+  <si>
+    <t>NKR 71</t>
+  </si>
+  <si>
+    <t>NMR 71</t>
+  </si>
+  <si>
+    <t>FRR 90</t>
+  </si>
+  <si>
+    <t>FTR 90</t>
+  </si>
+  <si>
+    <t>FVR 34</t>
+  </si>
+  <si>
+    <t>FVM 34</t>
+  </si>
+  <si>
+    <t>FVZ 34P</t>
+  </si>
+  <si>
+    <t>XD GIGA</t>
+  </si>
+  <si>
+    <t>MITSUBISHI</t>
+  </si>
+  <si>
+    <t>L 100</t>
+  </si>
+  <si>
+    <t>L 100'83</t>
+  </si>
+  <si>
+    <t>NC 1W</t>
+  </si>
+  <si>
+    <t>T 120</t>
+  </si>
+  <si>
+    <t>T 120'72</t>
+  </si>
+  <si>
+    <t>T 120'75</t>
+  </si>
+  <si>
+    <t>T 120'78</t>
+  </si>
+  <si>
+    <t>T 120-U51T</t>
+  </si>
+  <si>
+    <t>T 120-U52T</t>
+  </si>
+  <si>
+    <t>L 300</t>
+  </si>
+  <si>
+    <t>L 031</t>
+  </si>
+  <si>
+    <t>L 032</t>
+  </si>
+  <si>
+    <t>L 038</t>
+  </si>
+  <si>
+    <t>L 039</t>
+  </si>
+  <si>
+    <t>L 039-E2</t>
+  </si>
+  <si>
+    <t>KUDA G</t>
+  </si>
+  <si>
+    <t>KUDA D</t>
+  </si>
+  <si>
+    <t>KUDA 2.0</t>
+  </si>
+  <si>
+    <t>L 06A E4</t>
+  </si>
+  <si>
+    <t>L 200 ALL</t>
+  </si>
+  <si>
+    <t>L200 K64</t>
+  </si>
+  <si>
+    <t>L200 K74</t>
+  </si>
+  <si>
+    <t>L200 K57</t>
+  </si>
+  <si>
+    <t>L200 K77</t>
+  </si>
+  <si>
+    <t>L200 KB4 T</t>
+  </si>
+  <si>
+    <t>L200 KB7 T</t>
+  </si>
+  <si>
+    <t>L 200 KL3 T</t>
+  </si>
+  <si>
+    <t>L200 KL1 T</t>
+  </si>
+  <si>
+    <t>V 43W</t>
+  </si>
+  <si>
+    <t>V 78W</t>
+  </si>
+  <si>
+    <t>CR 45</t>
+  </si>
+  <si>
+    <t>KR 1W</t>
+  </si>
+  <si>
+    <t>T 200</t>
+  </si>
+  <si>
+    <t>T 210</t>
+  </si>
+  <si>
+    <t>FE 101</t>
+  </si>
+  <si>
+    <t>FE 111</t>
+  </si>
+  <si>
+    <t>FE111'79</t>
+  </si>
+  <si>
+    <t>FE111'81</t>
+  </si>
+  <si>
+    <t>FE 114</t>
+  </si>
+  <si>
+    <t>FE 119</t>
+  </si>
+  <si>
+    <t>FE 334</t>
+  </si>
+  <si>
+    <t>FE 304</t>
+  </si>
+  <si>
+    <t>FE 347</t>
+  </si>
+  <si>
+    <t>FE 447</t>
+  </si>
+  <si>
+    <t>FE 349</t>
+  </si>
+  <si>
+    <t>FE 71</t>
+  </si>
+  <si>
+    <t>GANTI NO. 608F</t>
+  </si>
+  <si>
+    <t>FE 73</t>
+  </si>
+  <si>
+    <t>FE 74</t>
+  </si>
+  <si>
+    <t>FE 75</t>
+  </si>
+  <si>
+    <t>FE 84</t>
+  </si>
+  <si>
+    <t>FE 74M E4</t>
+  </si>
+  <si>
+    <t>FE 84M E4</t>
+  </si>
+  <si>
+    <t>FUSO</t>
+  </si>
+  <si>
+    <t>FM 215</t>
+  </si>
+  <si>
+    <t>FN 516</t>
+  </si>
+  <si>
+    <t>FM 516</t>
+  </si>
+  <si>
+    <t>BM 115</t>
+  </si>
+  <si>
+    <t>FM 517</t>
+  </si>
+  <si>
+    <t>FN 527</t>
+  </si>
+  <si>
+    <t>BM 117</t>
+  </si>
+  <si>
+    <t>FV 418</t>
+  </si>
+  <si>
+    <t>FP 418</t>
+  </si>
+  <si>
+    <t>6D 24</t>
+  </si>
+  <si>
+    <t>6D 40</t>
+  </si>
+  <si>
+    <t>FM 517HL</t>
+  </si>
+  <si>
+    <t>FV 415</t>
+  </si>
+  <si>
+    <t>FV 519</t>
+  </si>
+  <si>
+    <t>FV 51 JH</t>
+  </si>
+  <si>
+    <t>FM 65F</t>
+  </si>
+  <si>
+    <t>FN 617</t>
+  </si>
+  <si>
+    <t>FN 627</t>
+  </si>
+  <si>
+    <t>FJ 2523</t>
+  </si>
+  <si>
+    <t>NISSAN</t>
+  </si>
+  <si>
+    <t>LIVINA</t>
+  </si>
+  <si>
+    <t>CK 10</t>
+  </si>
+  <si>
+    <t>CKA 12</t>
+  </si>
+  <si>
+    <t>CKA 87</t>
+  </si>
+  <si>
+    <t>CB 87</t>
+  </si>
+  <si>
+    <t>RB 87</t>
+  </si>
+  <si>
+    <t>CWA 45</t>
+  </si>
+  <si>
+    <t>CWB 450</t>
+  </si>
+  <si>
+    <t>CWA 53</t>
+  </si>
+  <si>
+    <t>TZA 50</t>
+  </si>
+  <si>
+    <t>CWB 520</t>
+  </si>
+  <si>
+    <t>CDA 12</t>
+  </si>
+  <si>
+    <t>CWM 430</t>
+  </si>
+  <si>
+    <t>CW 66 RE</t>
+  </si>
+  <si>
+    <t>GWE 280</t>
+  </si>
+  <si>
+    <t>PK 215</t>
+  </si>
+  <si>
+    <t>PK 260</t>
+  </si>
+  <si>
+    <t>SUZUKI</t>
+  </si>
+  <si>
+    <t>ST 20</t>
+  </si>
+  <si>
+    <t>ST 20N</t>
+  </si>
+  <si>
+    <t>ST 100</t>
+  </si>
+  <si>
+    <t>ST 100EX</t>
+  </si>
+  <si>
+    <t>ST 100T2</t>
+  </si>
+  <si>
+    <t>AVI 414</t>
+  </si>
+  <si>
+    <t>ARK 415</t>
+  </si>
+  <si>
+    <t>AEV 415</t>
+  </si>
+  <si>
+    <t>SL 413</t>
+  </si>
+  <si>
+    <t>SL413'94</t>
+  </si>
+  <si>
+    <t>SL 415</t>
+  </si>
+  <si>
+    <t>SL 415 i</t>
+  </si>
+  <si>
+    <t>GC 415 T1</t>
+  </si>
+  <si>
+    <t>GC 415 GL</t>
+  </si>
+  <si>
+    <t>LJ 80</t>
+  </si>
+  <si>
+    <t>SJ 410</t>
+  </si>
+  <si>
+    <t>SJ 410V3</t>
+  </si>
+  <si>
+    <t>SE 416V</t>
+  </si>
+  <si>
+    <t>SE 416E</t>
+  </si>
+  <si>
+    <t>SE 420</t>
+  </si>
+  <si>
+    <t>JB 420 W</t>
+  </si>
+  <si>
+    <t>JA 625W</t>
+  </si>
+  <si>
+    <t>TOYOTA</t>
+  </si>
+  <si>
+    <t>AGYA</t>
+  </si>
+  <si>
+    <t>CALYA</t>
+  </si>
+  <si>
+    <t>A 250</t>
+  </si>
+  <si>
+    <t>F 601</t>
+  </si>
+  <si>
+    <t>F 602</t>
+  </si>
+  <si>
+    <t>F 602V</t>
+  </si>
+  <si>
+    <t>F 653</t>
+  </si>
+  <si>
+    <t>F 654</t>
+  </si>
+  <si>
+    <t>W 100</t>
+  </si>
+  <si>
+    <t>KF 10 3K</t>
+  </si>
+  <si>
+    <t>KF 20 4K</t>
+  </si>
+  <si>
+    <t>KF 40 5K</t>
+  </si>
+  <si>
+    <t>KF 50 5K</t>
+  </si>
+  <si>
+    <t>KF 42 5K</t>
+  </si>
+  <si>
+    <t>KF 52 7K</t>
+  </si>
+  <si>
+    <t>KF 60 7K</t>
+  </si>
+  <si>
+    <t>KF 80 7K</t>
+  </si>
+  <si>
+    <t>LF 80 2L</t>
+  </si>
+  <si>
+    <t>KF 72 7KE</t>
+  </si>
+  <si>
+    <t>INNOVA</t>
+  </si>
+  <si>
+    <t>TG40 1TR</t>
+  </si>
+  <si>
+    <t>TG41 2TR</t>
+  </si>
+  <si>
+    <t>KU40 2KD</t>
+  </si>
+  <si>
+    <t>TGN 140R</t>
+  </si>
+  <si>
+    <t>GUN 142R</t>
+  </si>
+  <si>
+    <t>RZF 71</t>
+  </si>
+  <si>
+    <t>PH 10</t>
+  </si>
+  <si>
+    <t>RH 11</t>
+  </si>
+  <si>
+    <t>LH 11</t>
+  </si>
+  <si>
+    <t>LH 11'84</t>
+  </si>
+  <si>
+    <t>HI ACE COM</t>
+  </si>
+  <si>
+    <t>TGN 10R</t>
+  </si>
+  <si>
+    <t>TGN 16R</t>
+  </si>
+  <si>
+    <t>KUN 10R</t>
+  </si>
+  <si>
+    <t>KUN 36R</t>
+  </si>
+  <si>
+    <t>GUN 125</t>
+  </si>
+  <si>
+    <t>FJ 135</t>
+  </si>
+  <si>
+    <t>FJ 145</t>
+  </si>
+  <si>
+    <t>FJ 155</t>
+  </si>
+  <si>
+    <t>2 F</t>
+  </si>
+  <si>
+    <t>BJ 40</t>
+  </si>
+  <si>
+    <t>2 F NEW</t>
+  </si>
+  <si>
+    <t>GUN 165R</t>
+  </si>
+  <si>
+    <t>2 GD 2.4L</t>
+  </si>
+  <si>
+    <t>1 GD 2.8L</t>
+  </si>
+  <si>
+    <t>BU 30</t>
+  </si>
+  <si>
+    <t>BY 40</t>
+  </si>
+  <si>
+    <t>BY 41</t>
+  </si>
+  <si>
+    <t>BY 42</t>
+  </si>
+  <si>
+    <t>BY 43</t>
+  </si>
+  <si>
+    <t>BU 343DT</t>
+  </si>
+  <si>
+    <t>WU 302SD</t>
+  </si>
+  <si>
+    <t>WU 340LT</t>
+  </si>
+  <si>
+    <t>WU 340HT</t>
+  </si>
+  <si>
+    <t>XZU 342</t>
+  </si>
+  <si>
+    <t>WU 340LD</t>
+  </si>
+  <si>
+    <t>WU 342MD</t>
+  </si>
+  <si>
+    <t>WU 342HD</t>
+  </si>
+  <si>
+    <t>Univ.</t>
+  </si>
+  <si>
+    <t>4 X 2</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>DIESEL</t>
+  </si>
+  <si>
+    <t>QUESTER</t>
+  </si>
+  <si>
+    <t>1000 cc</t>
+  </si>
+  <si>
+    <t>1000 CC</t>
+  </si>
+  <si>
+    <t>1300 CC</t>
+  </si>
+  <si>
+    <t>1500 CC</t>
+  </si>
+  <si>
+    <t>K3DE 1300 cc</t>
+  </si>
+  <si>
+    <t>3SZVE 1500 cc</t>
+  </si>
+  <si>
+    <t>2NR-VE</t>
+  </si>
+  <si>
+    <t>EFI</t>
+  </si>
+  <si>
+    <t>2500 CC</t>
+  </si>
+  <si>
+    <t>3000 CC</t>
+  </si>
+  <si>
+    <t>EH 100</t>
+  </si>
+  <si>
+    <t>H0 7C D4</t>
+  </si>
+  <si>
+    <t>H0 7C D6</t>
+  </si>
+  <si>
+    <t>H0 7D</t>
+  </si>
+  <si>
+    <t>EM 100</t>
+  </si>
+  <si>
+    <t>J0 8C 210PS</t>
+  </si>
+  <si>
+    <t>215 PS</t>
+  </si>
+  <si>
+    <t>235 PS</t>
+  </si>
+  <si>
+    <t>J08 E- UF</t>
+  </si>
+  <si>
+    <t>260 PS</t>
+  </si>
+  <si>
+    <t>P 11C-UB</t>
+  </si>
+  <si>
+    <t>EK 100</t>
+  </si>
+  <si>
+    <t>J0 8CF</t>
+  </si>
+  <si>
+    <t>J0 8T1</t>
+  </si>
+  <si>
+    <t>2300 CC</t>
+  </si>
+  <si>
+    <t>C 223 2.3L</t>
+  </si>
+  <si>
+    <t>4J A1 2.5L</t>
+  </si>
+  <si>
+    <t>4 X 4</t>
+  </si>
+  <si>
+    <t>4JB 1/77 PS</t>
+  </si>
+  <si>
+    <t>4BE 1/90 PS</t>
+  </si>
+  <si>
+    <t>BISON</t>
+  </si>
+  <si>
+    <t>4JB 1TC/ 135 PS</t>
+  </si>
+  <si>
+    <t>4HG 1T/ 120 PS</t>
+  </si>
+  <si>
+    <t>4HK1 190 PS</t>
+  </si>
+  <si>
+    <t>4HK1 210 PS</t>
+  </si>
+  <si>
+    <t>6HK1 240 PS</t>
+  </si>
+  <si>
+    <t>6HK1 285 PS</t>
+  </si>
+  <si>
+    <t>550 CC</t>
+  </si>
+  <si>
+    <t>4G41 1400 CC</t>
+  </si>
+  <si>
+    <t>4G17 1300 CC</t>
+  </si>
+  <si>
+    <t>4G15 1500 CC</t>
+  </si>
+  <si>
+    <t>4G33 1400 CC</t>
+  </si>
+  <si>
+    <t>4G32 1600 CC</t>
+  </si>
+  <si>
+    <t>4D55 2300 CC</t>
+  </si>
+  <si>
+    <t>4D56 2500 CC</t>
+  </si>
+  <si>
+    <t>4G18 1600 CC</t>
+  </si>
+  <si>
+    <t>4G 2000 cc</t>
+  </si>
+  <si>
+    <t>4N14 2200 cc</t>
+  </si>
+  <si>
+    <t>4M40 2800 cc</t>
+  </si>
+  <si>
+    <t>4D56 2500 cc</t>
+  </si>
+  <si>
+    <t>4N15 2400 cc</t>
+  </si>
+  <si>
+    <t>3200 CC</t>
+  </si>
+  <si>
+    <t>2400 CC</t>
+  </si>
+  <si>
+    <t>4N 15</t>
+  </si>
+  <si>
+    <t>4D30A</t>
+  </si>
+  <si>
+    <t>4D30A 100 PS</t>
+  </si>
+  <si>
+    <t>4D340 100 PS</t>
+  </si>
+  <si>
+    <t>4D340 120 PS</t>
+  </si>
+  <si>
+    <t>4D310 100 PS</t>
+  </si>
+  <si>
+    <t>4D334 135 PS</t>
+  </si>
+  <si>
+    <t>4D342 110 PS</t>
+  </si>
+  <si>
+    <t>4D342 125 PS</t>
+  </si>
+  <si>
+    <t>4D342 136 PS</t>
+  </si>
+  <si>
+    <t>4V 21</t>
+  </si>
+  <si>
+    <t>6D 14</t>
+  </si>
+  <si>
+    <t>6D 15</t>
+  </si>
+  <si>
+    <t>6D16 190 PS</t>
+  </si>
+  <si>
+    <t>6D16 220 PS</t>
+  </si>
+  <si>
+    <t>6D 22 2A</t>
+  </si>
+  <si>
+    <t>6D 22 1A</t>
+  </si>
+  <si>
+    <t>6D16 220PS</t>
+  </si>
+  <si>
+    <t>8 DC9</t>
+  </si>
+  <si>
+    <t>8 DC11</t>
+  </si>
+  <si>
+    <t>6M 701</t>
+  </si>
+  <si>
+    <t>6M 601</t>
+  </si>
+  <si>
+    <t>220 PS</t>
+  </si>
+  <si>
+    <t>250 PS</t>
+  </si>
+  <si>
+    <t>6S20-230 PS</t>
+  </si>
+  <si>
+    <t>NE 6</t>
+  </si>
+  <si>
+    <t>FE 6T</t>
+  </si>
+  <si>
+    <t>PE 6B</t>
+  </si>
+  <si>
+    <t>PE 6T</t>
+  </si>
+  <si>
+    <t>PD 6</t>
+  </si>
+  <si>
+    <t>PF 6TC</t>
+  </si>
+  <si>
+    <t>RE 8</t>
+  </si>
+  <si>
+    <t>RD 8</t>
+  </si>
+  <si>
+    <t>RF 8</t>
+  </si>
+  <si>
+    <t>NE 6T</t>
+  </si>
+  <si>
+    <t>PE 6T 290 PS</t>
+  </si>
+  <si>
+    <t>RE 10</t>
+  </si>
+  <si>
+    <t>FE 6TA</t>
+  </si>
+  <si>
+    <t>FE 6TC</t>
+  </si>
+  <si>
+    <t>850 cc</t>
+  </si>
+  <si>
+    <t>1600 cc</t>
+  </si>
+  <si>
+    <t>2000 CC</t>
+  </si>
+  <si>
+    <t>1.3 K3 VE</t>
+  </si>
+  <si>
+    <t>1.5 3SZ VE</t>
+  </si>
+  <si>
+    <t>3 K</t>
+  </si>
+  <si>
+    <t>4 K</t>
+  </si>
+  <si>
+    <t>5 K</t>
+  </si>
+  <si>
+    <t>7 K</t>
+  </si>
+  <si>
+    <t>5 K 1.5 L</t>
+  </si>
+  <si>
+    <t>7 K 1.8 L</t>
+  </si>
+  <si>
+    <t>LF 2L</t>
+  </si>
+  <si>
+    <t>7K E 2.0 L</t>
+  </si>
+  <si>
+    <t>TGN 40R</t>
+  </si>
+  <si>
+    <t>TGN 41R</t>
+  </si>
+  <si>
+    <t>KUN 40R</t>
+  </si>
+  <si>
+    <t>1TR FE</t>
+  </si>
+  <si>
+    <t>2GD FTV</t>
+  </si>
+  <si>
+    <t>HILUX</t>
+  </si>
+  <si>
+    <t>1 F</t>
+  </si>
+  <si>
+    <t>4 X2 DIESEL</t>
+  </si>
+  <si>
+    <t>4 X4 DIESEL</t>
+  </si>
+  <si>
+    <t>3 B</t>
+  </si>
+  <si>
+    <t>13 B</t>
+  </si>
+  <si>
+    <t>14 B</t>
+  </si>
+  <si>
+    <t>14 B 115 PS</t>
+  </si>
+  <si>
+    <t>WO 4DJ 125 PS</t>
+  </si>
+  <si>
+    <t>SO 5CB 140 PS</t>
+  </si>
+  <si>
+    <t>WO 4DTM 110 PS</t>
+  </si>
+  <si>
+    <t>WO 4DTN 130PS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -82,11 +1471,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -99,6 +1490,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -117,7 +1514,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -140,16 +1537,59 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFC0C0C0"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFC0C0C0"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFC0C0C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFC0C0C0"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFC0C0C0"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFC0C0C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -368,11 +1808,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z3"/>
+  <dimension ref="A1:Z292"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <pane ySplit="1" topLeftCell="A276" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A292" sqref="A292:XFD292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -380,7 +1820,7 @@
     <col min="1" max="1" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -388,13 +1828,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>4</v>
-      </c>
       <c r="E1" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -418,19 +1858,17 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
-        <v>2010</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>5</v>
-      </c>
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="9"/>
       <c r="E2" s="2">
         <v>2</v>
       </c>
@@ -456,20 +1894,18 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
     </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
-        <v>2011</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="2">
+        <v>2000</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3">
         <v>2</v>
       </c>
       <c r="F3" s="2"/>
@@ -494,6 +1930,4723 @@
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
     </row>
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>2010</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>2011</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>2020</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>2021</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>2022</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>2024</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>2025</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>2026</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>2030</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>2031</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>2032</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>2034</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>2035</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>2036</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>2070</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>2071</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>2072</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>2073</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>2074</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>2075</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>2076</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>2077</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>2078</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>2079</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>2080</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>2081</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>2082</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>2083</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>3000</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>3050</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>3051</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>3052</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>3053</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>4100</v>
+      </c>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>4180</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>4182</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>4190</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="E44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>4191</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>4192</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>4193</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>4194</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>4195</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="E49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>4196</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>4197</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="E51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>4198</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="E52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>4199</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="E53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>13</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="E54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>14</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="E56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>16</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>17</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>18</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>19</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="E60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>20</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="E61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>21</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="E62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>22</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="E63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>23</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="E64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>24</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="E65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>25</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>26</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="E67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>27</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>28</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>4290</v>
+      </c>
+      <c r="B70" s="8"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
+      <c r="E70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>4510</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="E71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>4890</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="E72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>5000</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>5040</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="E74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>5041</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>5042</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="E76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>5043</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="E77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>5045</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="E78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>5046</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="E79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>5047</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="E80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>29</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <v>5050</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D82" s="7">
+        <v>2006</v>
+      </c>
+      <c r="E82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <v>5051</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="E83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>5052</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="E84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <v>5070</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <v>5080</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D86" s="8"/>
+      <c r="E86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <v>5081</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <v>5082</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="D88" s="8"/>
+      <c r="E88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89">
+        <v>5083</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="E89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <v>5084</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="E90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <v>5085</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D91" s="8"/>
+      <c r="E91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92">
+        <v>5086</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D92" s="8"/>
+      <c r="E92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A93">
+        <v>5087</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A94">
+        <v>5088</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="E94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A95">
+        <v>5089</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="E95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>30</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="E96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>31</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D97" s="8"/>
+      <c r="E97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A98">
+        <v>5090</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="E98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A99">
+        <v>5091</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="E99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A100">
+        <v>5092</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A101">
+        <v>5093</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A102">
+        <v>5094</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="D102" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="E102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A103">
+        <v>5095</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="D103" s="8"/>
+      <c r="E103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A104">
+        <v>6000</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D104" s="8"/>
+      <c r="E104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A105">
+        <v>6010</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="D105" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="E105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A106">
+        <v>6011</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D106" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="E106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A107">
+        <v>6020</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="D107" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="E107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A108">
+        <v>6030</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D108" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="E108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A109">
+        <v>6031</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D109" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="E109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A110">
+        <v>6032</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="D110" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="E110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A111">
+        <v>6033</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="D111" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="E111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A112">
+        <v>6034</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="D112" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="E112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A113">
+        <v>6035</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D113" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="E113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A114">
+        <v>6040</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="D114" s="8"/>
+      <c r="E114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A115">
+        <v>6041</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="D115" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="E115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A116">
+        <v>6042</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="D116" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="E116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A117">
+        <v>6043</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="D117" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="E117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A118">
+        <v>6044</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="D118" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="E118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A119">
+        <v>6045</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D119" s="8"/>
+      <c r="E119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A120">
+        <v>6046</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="D120" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="E120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A121">
+        <v>6047</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="D121" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="E121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A122">
+        <v>6048</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="D122" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="E122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A123">
+        <v>6049</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="D123" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="E123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A124">
+        <v>6050</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="D124" s="8"/>
+      <c r="E124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A125">
+        <v>6051</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D125" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="E125">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A126">
+        <v>6052</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="D126" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="E126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A127">
+        <v>6053</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="D127" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="E127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A128">
+        <v>6054</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="D128" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="E128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A129">
+        <v>6056</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="D129" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="E129">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A130">
+        <v>6057</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="D130" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="E130">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A131">
+        <v>6058</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="D131" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="E131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A132">
+        <v>6059</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D132" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="E132">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A133">
+        <v>6070</v>
+      </c>
+      <c r="B133" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C133" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="D133" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="E133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A134">
+        <v>6071</v>
+      </c>
+      <c r="B134" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C134" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="D134" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="E134">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A135">
+        <v>6072</v>
+      </c>
+      <c r="B135" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="C135" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="D135" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="E135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A136">
+        <v>6073</v>
+      </c>
+      <c r="B136" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="C136" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="D136" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="E136">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A137">
+        <v>6080</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C137" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="D137" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="E137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A138">
+        <v>6081</v>
+      </c>
+      <c r="B138" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C138" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="D138" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="E138">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A139">
+        <v>6082</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="C139" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="D139" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="E139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A140">
+        <v>6083</v>
+      </c>
+      <c r="B140" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="C140" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="D140" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="E140">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A141">
+        <v>6084</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="C141" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="D141" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="E141">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A142">
+        <v>6085</v>
+      </c>
+      <c r="B142" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="C142" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="D142" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="E142">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A143">
+        <v>6086</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C143" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="D143" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="E143">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A144">
+        <v>6087</v>
+      </c>
+      <c r="B144" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C144" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="D144" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="E144">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A145">
+        <v>6088</v>
+      </c>
+      <c r="B145" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C145" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="D145" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="E145">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>32</v>
+      </c>
+      <c r="B146" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="C146" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="D146" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="E146">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>33</v>
+      </c>
+      <c r="B147" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C147" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="D147" s="8"/>
+      <c r="E147">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>34</v>
+      </c>
+      <c r="B148" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="C148" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="D148" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="E148">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>35</v>
+      </c>
+      <c r="B149" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="C149" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="D149" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="E149">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>36</v>
+      </c>
+      <c r="B150" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="C150" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="D150" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="E150">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>37</v>
+      </c>
+      <c r="B151" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C151" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D151" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="E151">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>38</v>
+      </c>
+      <c r="B152" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C152" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="D152" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="E152">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>39</v>
+      </c>
+      <c r="B153" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C153" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="D153" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="E153">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>40</v>
+      </c>
+      <c r="B154" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C154" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="D154" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="E154">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>41</v>
+      </c>
+      <c r="B155" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="C155" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="D155" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="E155">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>42</v>
+      </c>
+      <c r="B156" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="C156" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="D156" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="E156">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>43</v>
+      </c>
+      <c r="B157" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="C157" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="D157" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="E157">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
+        <v>44</v>
+      </c>
+      <c r="B158" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C158" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="D158" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="E158">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A159">
+        <v>6090</v>
+      </c>
+      <c r="B159" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C159" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="D159" s="8"/>
+      <c r="E159">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A160">
+        <v>6091</v>
+      </c>
+      <c r="B160" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="C160" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="D160" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="E160">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A161">
+        <v>6092</v>
+      </c>
+      <c r="B161" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="C161" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="D161" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="E161">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A162">
+        <v>6093</v>
+      </c>
+      <c r="B162" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C162" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="D162" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="E162">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A163">
+        <v>6094</v>
+      </c>
+      <c r="B163" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C163" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="D163" s="8"/>
+      <c r="E163">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A164">
+        <v>6095</v>
+      </c>
+      <c r="B164" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C164" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D164" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="E164">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A165">
+        <v>6096</v>
+      </c>
+      <c r="B165" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="C165" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="D165" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="E165">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A166">
+        <v>6097</v>
+      </c>
+      <c r="B166" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="C166" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D166" s="8"/>
+      <c r="E166">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A167">
+        <v>6098</v>
+      </c>
+      <c r="B167" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C167" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="D167" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="E167">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A168">
+        <v>6099</v>
+      </c>
+      <c r="B168" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C168" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="D168" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="E168">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
+        <v>45</v>
+      </c>
+      <c r="B169" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="C169" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="D169" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="E169">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
+        <v>46</v>
+      </c>
+      <c r="B170" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="C170" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="D170" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="E170">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
+        <v>47</v>
+      </c>
+      <c r="B171" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="C171" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="D171" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="E171">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
+        <v>48</v>
+      </c>
+      <c r="B172" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="C172" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="D172" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="E172">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
+        <v>49</v>
+      </c>
+      <c r="B173" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="C173" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="D173" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="E173">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
+        <v>50</v>
+      </c>
+      <c r="B174" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="C174" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="D174" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="E174">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
+        <v>51</v>
+      </c>
+      <c r="B175" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="C175" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="D175" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="E175">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
+        <v>52</v>
+      </c>
+      <c r="B176" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="C176" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="D176" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="E176">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A177" t="s">
+        <v>53</v>
+      </c>
+      <c r="B177" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="C177" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="D177" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="E177">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
+        <v>54</v>
+      </c>
+      <c r="B178" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="C178" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="D178" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="E178">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
+        <v>55</v>
+      </c>
+      <c r="B179" s="8"/>
+      <c r="C179" s="8"/>
+      <c r="D179" s="8"/>
+      <c r="E179">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A180" t="s">
+        <v>56</v>
+      </c>
+      <c r="B180" s="8"/>
+      <c r="C180" s="8"/>
+      <c r="D180" s="8"/>
+      <c r="E180">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A181" t="s">
+        <v>57</v>
+      </c>
+      <c r="B181" s="8"/>
+      <c r="C181" s="8"/>
+      <c r="D181" s="8"/>
+      <c r="E181">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A182">
+        <v>6190</v>
+      </c>
+      <c r="B182" s="8"/>
+      <c r="C182" s="8"/>
+      <c r="D182" s="8"/>
+      <c r="E182">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A183">
+        <v>6191</v>
+      </c>
+      <c r="B183" s="8"/>
+      <c r="C183" s="8"/>
+      <c r="D183" s="8"/>
+      <c r="E183">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A184">
+        <v>7000</v>
+      </c>
+      <c r="B184" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="C184" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="D184" s="8"/>
+      <c r="E184">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A185">
+        <v>7030</v>
+      </c>
+      <c r="B185" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C185" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="D185" s="8"/>
+      <c r="E185">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A186">
+        <v>7090</v>
+      </c>
+      <c r="B186" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="C186" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="D186" s="8"/>
+      <c r="E186">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A187">
+        <v>7091</v>
+      </c>
+      <c r="B187" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="C187" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="D187" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="E187">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A188">
+        <v>7092</v>
+      </c>
+      <c r="B188" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C188" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="D188" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="E188">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A189">
+        <v>7093</v>
+      </c>
+      <c r="B189" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="C189" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="D189" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="E189">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A190">
+        <v>7094</v>
+      </c>
+      <c r="B190" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="C190" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="D190" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="E190">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A191">
+        <v>7095</v>
+      </c>
+      <c r="B191" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="C191" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="D191" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="E191">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A192">
+        <v>7096</v>
+      </c>
+      <c r="B192" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="C192" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="D192" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="E192">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A193">
+        <v>7097</v>
+      </c>
+      <c r="B193" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="C193" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="D193" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="E193">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A194">
+        <v>7098</v>
+      </c>
+      <c r="B194" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="C194" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="D194" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="E194">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A195">
+        <v>7099</v>
+      </c>
+      <c r="B195" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="C195" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="D195" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="E195">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A196" t="s">
+        <v>58</v>
+      </c>
+      <c r="B196" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="C196" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="D196" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="E196">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A197" t="s">
+        <v>59</v>
+      </c>
+      <c r="B197" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="C197" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="D197" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="E197">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A198" t="s">
+        <v>60</v>
+      </c>
+      <c r="B198" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="C198" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="D198" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="E198">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A199" t="s">
+        <v>61</v>
+      </c>
+      <c r="B199" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="C199" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="D199" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="E199">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A200" t="s">
+        <v>62</v>
+      </c>
+      <c r="B200" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="C200" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="D200" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="E200">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A201" t="s">
+        <v>63</v>
+      </c>
+      <c r="B201" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="C201" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="D201" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="E201">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A202" t="s">
+        <v>64</v>
+      </c>
+      <c r="B202" s="8"/>
+      <c r="C202" s="8"/>
+      <c r="D202" s="8"/>
+      <c r="E202">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A203">
+        <v>8000</v>
+      </c>
+      <c r="B203" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="C203" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="D203" s="8"/>
+      <c r="E203">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A204">
+        <v>8010</v>
+      </c>
+      <c r="B204" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="C204" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="D204" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E204">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A205">
+        <v>8011</v>
+      </c>
+      <c r="B205" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="C205" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="D205" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E205">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A206">
+        <v>8020</v>
+      </c>
+      <c r="B206" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="C206" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="D206" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="E206">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A207">
+        <v>8021</v>
+      </c>
+      <c r="B207" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="C207" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="D207" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="E207">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A208">
+        <v>8022</v>
+      </c>
+      <c r="B208" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="C208" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="D208" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="E208">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A209">
+        <v>8023</v>
+      </c>
+      <c r="B209" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="C209" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="D209" s="8"/>
+      <c r="E209">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A210">
+        <v>8024</v>
+      </c>
+      <c r="B210" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="C210" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="D210" s="8"/>
+      <c r="E210">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A211">
+        <v>8025</v>
+      </c>
+      <c r="B211" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="C211" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="D211" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="E211">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A212">
+        <v>8030</v>
+      </c>
+      <c r="B212" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="C212" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="D212" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="E212">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A213">
+        <v>8031</v>
+      </c>
+      <c r="B213" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="C213" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="D213" s="8"/>
+      <c r="E213">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A214">
+        <v>8032</v>
+      </c>
+      <c r="B214" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="C214" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="D214" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="E214">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A215">
+        <v>8034</v>
+      </c>
+      <c r="B215" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="C215" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="D215" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="E215">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A216">
+        <v>8035</v>
+      </c>
+      <c r="B216" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="C216" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="D216" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="E216">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A217">
+        <v>8036</v>
+      </c>
+      <c r="B217" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="C217" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="D217" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="E217">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A218">
+        <v>8070</v>
+      </c>
+      <c r="B218" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="C218" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="D218" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="E218">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A219">
+        <v>8071</v>
+      </c>
+      <c r="B219" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="C219" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="D219" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="E219">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A220">
+        <v>8072</v>
+      </c>
+      <c r="B220" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="C220" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="D220" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="E220">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A221">
+        <v>8074</v>
+      </c>
+      <c r="B221" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="C221" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="D221" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="E221">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A222">
+        <v>8075</v>
+      </c>
+      <c r="B222" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="C222" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="D222" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="E222">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A223">
+        <v>8076</v>
+      </c>
+      <c r="B223" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="C223" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="D223" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="E223">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A224">
+        <v>8077</v>
+      </c>
+      <c r="B224" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="C224" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="D224" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="E224">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A225">
+        <v>8078</v>
+      </c>
+      <c r="B225" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="C225" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="D225" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="E225">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A226">
+        <v>9000</v>
+      </c>
+      <c r="B226" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="C226" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="D226" s="8"/>
+      <c r="E226">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A227">
+        <v>9010</v>
+      </c>
+      <c r="B227" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="C227" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="D227" s="8"/>
+      <c r="E227">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A228">
+        <v>9011</v>
+      </c>
+      <c r="B228" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="C228" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="D228" s="8"/>
+      <c r="E228">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A229">
+        <v>9012</v>
+      </c>
+      <c r="B229" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="C229" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="D229" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="E229">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A230">
+        <v>9020</v>
+      </c>
+      <c r="B230" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="C230" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="D230" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="E230">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A231">
+        <v>9021</v>
+      </c>
+      <c r="B231" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="C231" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="D231" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="E231">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A232">
+        <v>9022</v>
+      </c>
+      <c r="B232" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="C232" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="D232" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="E232">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A233">
+        <v>9023</v>
+      </c>
+      <c r="B233" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="C233" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="D233" s="8"/>
+      <c r="E233">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A234">
+        <v>9024</v>
+      </c>
+      <c r="B234" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="C234" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="D234" s="8"/>
+      <c r="E234">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A235">
+        <v>9025</v>
+      </c>
+      <c r="B235" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="C235" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="D235" s="8"/>
+      <c r="E235">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A236">
+        <v>9030</v>
+      </c>
+      <c r="B236" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="C236" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="D236" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="E236">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A237">
+        <v>9031</v>
+      </c>
+      <c r="B237" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="C237" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="D237" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="E237">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A238">
+        <v>9032</v>
+      </c>
+      <c r="B238" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="C238" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="D238" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E238">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A239">
+        <v>9033</v>
+      </c>
+      <c r="B239" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="C239" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="D239" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="E239">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A240">
+        <v>9034</v>
+      </c>
+      <c r="B240" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="C240" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="D240" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="E240">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A241">
+        <v>9035</v>
+      </c>
+      <c r="B241" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="C241" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="D241" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="E241">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A242">
+        <v>9036</v>
+      </c>
+      <c r="B242" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="C242" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="D242" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="E242">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A243">
+        <v>9037</v>
+      </c>
+      <c r="B243" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="C243" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="D243" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="E243">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A244">
+        <v>9038</v>
+      </c>
+      <c r="B244" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="C244" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="D244" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="E244">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A245">
+        <v>9039</v>
+      </c>
+      <c r="B245" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="C245" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="D245" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="E245">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A246" t="s">
+        <v>65</v>
+      </c>
+      <c r="B246" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="C246" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="D246" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="E246">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A247" t="s">
+        <v>66</v>
+      </c>
+      <c r="B247" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="C247" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="D247" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="E247">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A248" t="s">
+        <v>67</v>
+      </c>
+      <c r="B248" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="C248" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="D248" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="E248">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A249" t="s">
+        <v>68</v>
+      </c>
+      <c r="B249" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="C249" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="D249" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="E249">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A250" t="s">
+        <v>69</v>
+      </c>
+      <c r="B250" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="C250" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="D250" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="E250">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A251" t="s">
+        <v>70</v>
+      </c>
+      <c r="B251" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="C251" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="D251" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="E251">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A252" t="s">
+        <v>71</v>
+      </c>
+      <c r="B252" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="C252" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="D252" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="E252">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A253">
+        <v>9040</v>
+      </c>
+      <c r="B253" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="C253" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="D253" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="E253">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A254">
+        <v>9041</v>
+      </c>
+      <c r="B254" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="C254" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="D254" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="E254">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A255">
+        <v>9042</v>
+      </c>
+      <c r="B255" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="C255" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="D255" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="E255">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A256">
+        <v>9043</v>
+      </c>
+      <c r="B256" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="C256" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="D256" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="E256">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A257">
+        <v>9044</v>
+      </c>
+      <c r="B257" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="C257" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="D257" s="8"/>
+      <c r="E257">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A258">
+        <v>9050</v>
+      </c>
+      <c r="B258" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="C258" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D258" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="E258">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A259">
+        <v>9051</v>
+      </c>
+      <c r="B259" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="C259" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="D259" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="E259">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A260">
+        <v>9052</v>
+      </c>
+      <c r="B260" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="C260" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="D260" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="E260">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A261">
+        <v>9053</v>
+      </c>
+      <c r="B261" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="C261" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="D261" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="E261">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A262">
+        <v>9054</v>
+      </c>
+      <c r="B262" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="C262" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="D262" s="8"/>
+      <c r="E262">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A263">
+        <v>9070</v>
+      </c>
+      <c r="B263" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="C263" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="D263" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="E263">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A264">
+        <v>9071</v>
+      </c>
+      <c r="B264" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="C264" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="D264" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="E264">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A265">
+        <v>9072</v>
+      </c>
+      <c r="B265" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="C265" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="D265" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="E265">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A266">
+        <v>9073</v>
+      </c>
+      <c r="B266" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="C266" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="D266" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="E266">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A267">
+        <v>9074</v>
+      </c>
+      <c r="B267" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="C267" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="D267" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="E267">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A268">
+        <v>9075</v>
+      </c>
+      <c r="B268" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="C268" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="D268" s="8"/>
+      <c r="E268">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A269" t="s">
+        <v>72</v>
+      </c>
+      <c r="B269" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="C269" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="D269" s="8"/>
+      <c r="E269">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A270" t="s">
+        <v>73</v>
+      </c>
+      <c r="B270" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="C270" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="D270" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="E270">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A271" t="s">
+        <v>74</v>
+      </c>
+      <c r="B271" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="C271" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="D271" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="E271">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A272">
+        <v>9080</v>
+      </c>
+      <c r="B272" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="C272" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="D272" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="E272">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A273">
+        <v>9081</v>
+      </c>
+      <c r="B273" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="C273" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="D273" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="E273">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A274">
+        <v>9082</v>
+      </c>
+      <c r="B274" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="C274" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="D274" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="E274">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A275">
+        <v>9083</v>
+      </c>
+      <c r="B275" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="C275" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="D275" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="E275">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A276">
+        <v>9084</v>
+      </c>
+      <c r="B276" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="C276" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="D276" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="E276">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A277">
+        <v>9085</v>
+      </c>
+      <c r="B277" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="C277" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="D277" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="E277">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A278">
+        <v>9086</v>
+      </c>
+      <c r="B278" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="C278" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="D278" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="E278">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A279">
+        <v>9087</v>
+      </c>
+      <c r="B279" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="C279" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="D279" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="E279">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A280">
+        <v>9088</v>
+      </c>
+      <c r="B280" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="C280" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="D280" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="E280">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A281">
+        <v>9089</v>
+      </c>
+      <c r="B281" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="C281" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="D281" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="E281">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A282" t="s">
+        <v>75</v>
+      </c>
+      <c r="B282" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="C282" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="D282" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="E282">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A283" t="s">
+        <v>76</v>
+      </c>
+      <c r="B283" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="C283" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="D283" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="E283">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A284" t="s">
+        <v>77</v>
+      </c>
+      <c r="B284" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="C284" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="D284" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="E284">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A285" t="s">
+        <v>78</v>
+      </c>
+      <c r="B285" s="8"/>
+      <c r="C285" s="8"/>
+      <c r="D285" s="8"/>
+      <c r="E285">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A286">
+        <v>9500</v>
+      </c>
+      <c r="B286" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="C286" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="D286" s="8"/>
+      <c r="E286">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A287">
+        <v>9501</v>
+      </c>
+      <c r="B287" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="C287" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="D287" s="8"/>
+      <c r="E287">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A288">
+        <v>9502</v>
+      </c>
+      <c r="B288" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="C288" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="D288" s="8"/>
+      <c r="E288">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A289">
+        <v>9503</v>
+      </c>
+      <c r="B289" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="C289" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="D289" s="8"/>
+      <c r="E289">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A290">
+        <v>9505</v>
+      </c>
+      <c r="B290" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="C290" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="D290" s="8"/>
+      <c r="E290">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A291">
+        <v>9508</v>
+      </c>
+      <c r="B291" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="C291" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="D291" s="8"/>
+      <c r="E291">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A292">
+        <v>9509</v>
+      </c>
+      <c r="B292" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="C292" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="D292" s="8"/>
+      <c r="E292">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
